--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\OneDrive\Desktop\#crackyourinternship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf10ee88a5560afd/Desktop/^Ncrackyourinternship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5325DE69-7517-4343-9603-A933285F6FD7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="327">
   <si>
     <t>Status</t>
   </si>
@@ -1562,8 +1562,8 @@
   <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="24" customHeight="1"/>
@@ -2581,6 +2581,9 @@
       </c>
       <c r="B100" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C100" s="39" t="s">
+        <v>322</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>6</v>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf10ee88a5560afd/Desktop/^Ncrackyourinternship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{452B5F66-9E12-4D61-B7BD-F473BD5F45DE}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103F2AD2-3C18-439B-AFB3-560B8934143A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="327">
   <si>
     <t>Status</t>
   </si>
@@ -1582,8 +1582,8 @@
   <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="32.1" customHeight="1"/>
@@ -2602,6 +2602,9 @@
       <c r="B99" s="28" t="s">
         <v>325</v>
       </c>
+      <c r="C99" s="20" t="s">
+        <v>321</v>
+      </c>
       <c r="F99" s="1" t="s">
         <v>6</v>
       </c>
@@ -2627,6 +2630,9 @@
       <c r="B101" s="22" t="s">
         <v>98</v>
       </c>
+      <c r="C101" s="20" t="s">
+        <v>321</v>
+      </c>
       <c r="D101" s="1" t="s">
         <v>6</v>
       </c>
@@ -2733,9 +2739,6 @@
       <c r="B109" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C109" s="20" t="s">
-        <v>321</v>
-      </c>
       <c r="D109" s="1" t="s">
         <v>6</v>
       </c>
@@ -2762,6 +2765,9 @@
       </c>
       <c r="B112" s="22" t="s">
         <v>108</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>321</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>6</v>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf10ee88a5560afd/Desktop/^Ncrackyourinternship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103F2AD2-3C18-439B-AFB3-560B8934143A}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE91A38B-3B87-4F45-B3D6-F3305332094E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="327">
   <si>
     <t>Status</t>
   </si>
@@ -1582,8 +1582,8 @@
   <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="32.1" customHeight="1"/>
@@ -2757,6 +2757,9 @@
       </c>
       <c r="B111" s="22" t="s">
         <v>107</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="32.1" customHeight="1">

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf10ee88a5560afd/Desktop/^Ncrackyourinternship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE91A38B-3B87-4F45-B3D6-F3305332094E}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3E517D-251B-4DC3-B978-B8C5AC7498A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="327">
   <si>
     <t>Status</t>
   </si>
@@ -1583,7 +1583,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="32.1" customHeight="1"/>
@@ -2650,6 +2650,9 @@
       <c r="B102" s="28" t="s">
         <v>326</v>
       </c>
+      <c r="C102" s="20" t="s">
+        <v>321</v>
+      </c>
       <c r="D102" s="1" t="s">
         <v>6</v>
       </c>
@@ -2727,6 +2730,9 @@
       </c>
       <c r="B108" s="22" t="s">
         <v>104</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>321</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>6</v>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf10ee88a5560afd/Desktop/^Ncrackyourinternship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3E517D-251B-4DC3-B978-B8C5AC7498A8}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B785A2-7B35-477D-9707-B7E29FBA11CD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="327">
   <si>
     <t>Status</t>
   </si>
@@ -1582,8 +1582,8 @@
   <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="32.1" customHeight="1"/>
@@ -2800,6 +2800,9 @@
       <c r="B114" s="22" t="s">
         <v>110</v>
       </c>
+      <c r="C114" s="20" t="s">
+        <v>321</v>
+      </c>
       <c r="H114" s="1" t="s">
         <v>6</v>
       </c>
@@ -2870,6 +2873,9 @@
       </c>
       <c r="B121" s="22" t="s">
         <v>117</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>321</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>6</v>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf10ee88a5560afd/Desktop/^Ncrackyourinternship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2652B9-3051-4961-8FBC-0F973D221B22}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{3D0027D1-9864-4A06-BC74-E79705549ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49DB7C79-9C67-495F-8F4E-CA8FC366A1B7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="327">
   <si>
     <t>Status</t>
   </si>
@@ -361,21 +361,12 @@
     <t>https://leetcode.com/problems/sort-list/</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/rearrange-a-given-linked-list-in-place/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/merge-k-sorted-lists/</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-nodes-in-k-group/</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/merge-sort-for-linked-list/</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/subtract-two-numbers-represented-as-linked-lists/</t>
   </si>
   <si>
@@ -1001,6 +992,15 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/linked-list-in-zig-zag-fashion/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/sort-a-linked-list/1/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/segregate-even-and-odd-nodes-in-a-linked-list5035/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/reorder-list/1/</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1212,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1315,13 +1315,17 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1542,11 +1546,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:J339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="32.1" customHeight="1"/>
@@ -1564,10 +1568,10 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1579,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -2499,7 +2503,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>6</v>
@@ -2516,13 +2520,13 @@
         <v>94</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="32.1" customHeight="1">
+    <row r="97" spans="1:9" ht="32.1" customHeight="1">
       <c r="A97" s="15" t="s">
         <v>7</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>6</v>
@@ -2539,7 +2543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="32.1" customHeight="1">
+    <row r="98" spans="1:9" ht="32.1" customHeight="1">
       <c r="A98" s="15" t="s">
         <v>7</v>
       </c>
@@ -2547,27 +2551,27 @@
         <v>96</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F98" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="32.1" customHeight="1">
+    <row r="99" spans="1:9" ht="32.1" customHeight="1">
       <c r="A99" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F99" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="32.1" customHeight="1">
+    <row r="100" spans="1:9" ht="32.1" customHeight="1">
       <c r="A100" s="15" t="s">
         <v>7</v>
       </c>
@@ -2575,13 +2579,13 @@
         <v>97</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F100" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="32.1" customHeight="1">
+    <row r="101" spans="1:9" ht="32.1" customHeight="1">
       <c r="A101" s="15" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>6</v>
@@ -2601,21 +2605,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="32.1" customHeight="1">
+    <row r="102" spans="1:9" ht="32.1" customHeight="1">
       <c r="A102" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="32.1" customHeight="1">
+    <row r="103" spans="1:9" ht="32.1" customHeight="1">
       <c r="A103" s="15" t="s">
         <v>7</v>
       </c>
@@ -2623,10 +2627,10 @@
         <v>99</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="32.1" customHeight="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="32.1" customHeight="1">
       <c r="A104" s="15" t="s">
         <v>7</v>
       </c>
@@ -2634,13 +2638,13 @@
         <v>100</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="32.1" customHeight="1">
+    <row r="105" spans="1:9" ht="32.1" customHeight="1">
       <c r="A105" s="15" t="s">
         <v>7</v>
       </c>
@@ -2648,13 +2652,13 @@
         <v>101</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="32.1" customHeight="1">
+    <row r="106" spans="1:9" ht="32.1" customHeight="1">
       <c r="A106" s="15" t="s">
         <v>7</v>
       </c>
@@ -2662,13 +2666,13 @@
         <v>102</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F106" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="32.1" customHeight="1">
+    <row r="107" spans="1:9" ht="32.1" customHeight="1">
       <c r="A107" s="15" t="s">
         <v>17</v>
       </c>
@@ -2676,81 +2680,85 @@
         <v>103</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G107" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="38" customFormat="1" ht="32.1" customHeight="1">
+    <row r="108" spans="1:9" s="36" customFormat="1" ht="32.1" customHeight="1">
       <c r="A108" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B108" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
+      <c r="C108" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
       <c r="G108" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H108" s="37"/>
-    </row>
-    <row r="109" spans="1:8" s="38" customFormat="1" ht="32.1" customHeight="1">
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
+    </row>
+    <row r="109" spans="1:9" s="36" customFormat="1" ht="32.1" customHeight="1">
       <c r="A109" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B109" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C109" s="36" t="s">
-        <v>319</v>
+      <c r="C109" s="28" t="s">
+        <v>316</v>
       </c>
       <c r="D109" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
-    </row>
-    <row r="110" spans="1:8" s="38" customFormat="1" ht="32.1" customHeight="1">
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="19"/>
+    </row>
+    <row r="110" spans="1:9" s="36" customFormat="1" ht="32.1" customHeight="1">
       <c r="A110" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B110" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C110" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-    </row>
-    <row r="111" spans="1:8" s="38" customFormat="1" ht="32.1" customHeight="1">
+      <c r="C110" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="1:9" s="36" customFormat="1" ht="32.1" customHeight="1">
       <c r="A111" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B111" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C111" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-    </row>
-    <row r="112" spans="1:8" ht="32.1" customHeight="1">
+      <c r="C111" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="19"/>
+    </row>
+    <row r="112" spans="1:9" ht="32.1" customHeight="1">
       <c r="A112" s="15" t="s">
         <v>17</v>
       </c>
@@ -2758,24 +2766,33 @@
         <v>108</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H112" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A113" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="16" t="s">
+    <row r="113" spans="1:10" s="36" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A113" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="H113" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="32.1" customHeight="1">
+      <c r="C113" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113" s="19"/>
+      <c r="J113" s="39"/>
+    </row>
+    <row r="114" spans="1:10" ht="32.1" customHeight="1">
       <c r="A114" s="15" t="s">
         <v>17</v>
       </c>
@@ -2783,122 +2800,144 @@
         <v>110</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H114" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="38" customFormat="1" ht="32.1" customHeight="1">
+    <row r="115" spans="1:10" s="36" customFormat="1" ht="32.1" customHeight="1">
       <c r="A115" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B115" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C115" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
+      <c r="C115" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
       <c r="F115" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-    </row>
-    <row r="116" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A116" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="39"/>
+    </row>
+    <row r="116" spans="1:10" s="36" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A116" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" s="40"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="39"/>
+    </row>
+    <row r="117" spans="1:10" ht="32.1" customHeight="1">
+      <c r="A117" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" s="39"/>
+    </row>
+    <row r="118" spans="1:10" ht="32.1" customHeight="1">
+      <c r="A118" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="32.1" customHeight="1">
+      <c r="A119" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F116" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A117" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F117" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A118" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B118" s="16" t="s">
+      <c r="C119" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="32.1" customHeight="1">
+      <c r="A120" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A119" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" s="16" t="s">
+    <row r="121" spans="1:10" ht="32.1" customHeight="1">
+      <c r="A121" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E119" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A120" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120" s="16" t="s">
+      <c r="C121" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="32.1" customHeight="1">
+      <c r="A122" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="H122" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="32.1" customHeight="1">
+      <c r="A123" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H123" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="32.1" customHeight="1">
+      <c r="A124" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="16" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A121" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A122" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H122" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A123" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H123" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A124" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="F124" s="18" t="s">
         <v>6</v>
       </c>
@@ -2906,32 +2945,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="32.1" customHeight="1">
+    <row r="125" spans="1:10" ht="32.1" customHeight="1">
       <c r="A125" s="15"/>
       <c r="B125" s="20"/>
       <c r="D125" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="32.1" customHeight="1">
+    <row r="126" spans="1:10" ht="32.1" customHeight="1">
       <c r="A126" s="15"/>
       <c r="B126" s="29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="32.1" customHeight="1">
+    <row r="127" spans="1:10" ht="32.1" customHeight="1">
       <c r="A127" s="15"/>
       <c r="B127" s="16"/>
     </row>
-    <row r="128" spans="1:8" ht="32.1" customHeight="1">
+    <row r="128" spans="1:10" ht="32.1" customHeight="1">
       <c r="A128" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F128" s="18" t="s">
         <v>6</v>
@@ -2942,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F129" s="18" t="s">
         <v>6</v>
@@ -2956,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H130" s="18" t="s">
         <v>6</v>
@@ -2967,7 +3006,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F131" s="18" t="s">
         <v>6</v>
@@ -2981,7 +3020,7 @@
         <v>7</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>6</v>
@@ -2995,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E133" s="18" t="s">
         <v>6</v>
@@ -3009,7 +3048,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E134" s="18" t="s">
         <v>6</v>
@@ -3020,7 +3059,7 @@
         <v>17</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="32.1" customHeight="1">
@@ -3028,7 +3067,7 @@
         <v>17</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="32.1" customHeight="1">
@@ -3036,7 +3075,7 @@
         <v>17</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="32.1" customHeight="1">
@@ -3044,7 +3083,7 @@
         <v>17</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H138" s="18" t="s">
         <v>6</v>
@@ -3055,7 +3094,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F139" s="18" t="s">
         <v>6</v>
@@ -3069,7 +3108,7 @@
         <v>17</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F140" s="18" t="s">
         <v>6</v>
@@ -3083,7 +3122,7 @@
         <v>17</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F141" s="18" t="s">
         <v>6</v>
@@ -3094,7 +3133,7 @@
         <v>17</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="32.1" customHeight="1">
@@ -3102,7 +3141,7 @@
         <v>17</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="32.1" customHeight="1">
@@ -3110,7 +3149,7 @@
         <v>17</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>6</v>
@@ -3121,7 +3160,7 @@
         <v>33</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>6</v>
@@ -3132,7 +3171,7 @@
         <v>33</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>6</v>
@@ -3143,7 +3182,7 @@
         <v>33</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="32.1" customHeight="1">
@@ -3153,7 +3192,7 @@
     <row r="150" spans="1:8" ht="32.1" customHeight="1">
       <c r="A150" s="15"/>
       <c r="B150" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="32.1" customHeight="1">
@@ -3161,7 +3200,7 @@
         <v>7</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H151" s="18" t="s">
         <v>6</v>
@@ -3172,7 +3211,7 @@
         <v>7</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H152" s="18" t="s">
         <v>6</v>
@@ -3183,7 +3222,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H153" s="18" t="s">
         <v>6</v>
@@ -3194,7 +3233,7 @@
         <v>7</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="32.1" customHeight="1">
@@ -3202,7 +3241,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="32.1" customHeight="1">
@@ -3210,7 +3249,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>6</v>
@@ -3221,7 +3260,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D157" s="18" t="s">
         <v>6</v>
@@ -3232,7 +3271,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>6</v>
@@ -3243,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F159" s="18" t="s">
         <v>6</v>
@@ -3254,7 +3293,7 @@
         <v>7</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F160" s="18" t="s">
         <v>6</v>
@@ -3265,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F161" s="18" t="s">
         <v>6</v>
@@ -3276,7 +3315,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="32.1" customHeight="1">
@@ -3284,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="32.1" customHeight="1">
@@ -3292,7 +3331,7 @@
         <v>7</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="32.1" customHeight="1">
@@ -3300,7 +3339,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="32.1" customHeight="1">
@@ -3308,7 +3347,7 @@
         <v>7</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="32.1" customHeight="1">
@@ -3316,7 +3355,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="32.1" customHeight="1">
@@ -3324,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="32.1" customHeight="1">
@@ -3332,7 +3371,7 @@
         <v>17</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="32.1" customHeight="1">
@@ -3340,7 +3379,7 @@
         <v>17</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D170" s="18" t="s">
         <v>6</v>
@@ -3351,7 +3390,7 @@
         <v>17</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D171" s="18" t="s">
         <v>6</v>
@@ -3362,7 +3401,7 @@
         <v>17</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>6</v>
@@ -3373,7 +3412,7 @@
         <v>17</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="32.1" customHeight="1">
@@ -3381,7 +3420,7 @@
         <v>17</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="32.1" customHeight="1">
@@ -3389,7 +3428,7 @@
         <v>17</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="32.1" customHeight="1">
@@ -3397,7 +3436,7 @@
         <v>17</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F176" s="18" t="s">
         <v>6</v>
@@ -3408,7 +3447,7 @@
         <v>17</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D177" s="18" t="s">
         <v>6</v>
@@ -3422,7 +3461,7 @@
         <v>17</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D178" s="18" t="s">
         <v>6</v>
@@ -3436,7 +3475,7 @@
         <v>17</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D179" s="18" t="s">
         <v>6</v>
@@ -3447,7 +3486,7 @@
         <v>17</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="32.1" customHeight="1">
@@ -3455,7 +3494,7 @@
         <v>17</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="32.1" customHeight="1">
@@ -3463,7 +3502,7 @@
         <v>17</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="32.1" customHeight="1">
@@ -3471,7 +3510,7 @@
         <v>17</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F183" s="18" t="s">
         <v>6</v>
@@ -3482,7 +3521,7 @@
         <v>17</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F184" s="18" t="s">
         <v>6</v>
@@ -3493,7 +3532,7 @@
         <v>17</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F185" s="18" t="s">
         <v>6</v>
@@ -3504,7 +3543,7 @@
         <v>17</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E186" s="18" t="s">
         <v>6</v>
@@ -3515,7 +3554,7 @@
         <v>17</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="32.1" customHeight="1">
@@ -3523,7 +3562,7 @@
         <v>17</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D188" s="18" t="s">
         <v>6</v>
@@ -3534,7 +3573,7 @@
         <v>33</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="32.1" customHeight="1">
@@ -3542,7 +3581,7 @@
         <v>33</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="32.1" customHeight="1">
@@ -3550,7 +3589,7 @@
         <v>33</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D191" s="18" t="s">
         <v>6</v>
@@ -3561,7 +3600,7 @@
         <v>33</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D192" s="18" t="s">
         <v>6</v>
@@ -3575,7 +3614,7 @@
         <v>33</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D193" s="18" t="s">
         <v>6</v>
@@ -3592,7 +3631,7 @@
         <v>33</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="32.1" customHeight="1">
@@ -3600,7 +3639,7 @@
         <v>33</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="32.1" customHeight="1">
@@ -3608,7 +3647,7 @@
         <v>33</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F196" s="18" t="s">
         <v>6</v>
@@ -3619,7 +3658,7 @@
         <v>33</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F197" s="18" t="s">
         <v>6</v>
@@ -3630,13 +3669,13 @@
         <v>33</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="32.1" customHeight="1">
       <c r="A200" s="15"/>
       <c r="B200" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="32.1" customHeight="1">
@@ -3644,7 +3683,7 @@
         <v>7</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="32.1" customHeight="1">
@@ -3652,7 +3691,7 @@
         <v>7</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F202" s="18" t="s">
         <v>6</v>
@@ -3663,7 +3702,7 @@
         <v>7</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E203" s="18" t="s">
         <v>6</v>
@@ -3674,7 +3713,7 @@
         <v>7</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E204" s="18" t="s">
         <v>6</v>
@@ -3685,7 +3724,7 @@
         <v>7</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H205" s="18" t="s">
         <v>6</v>
@@ -3696,7 +3735,7 @@
         <v>7</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F206" s="18" t="s">
         <v>6</v>
@@ -3707,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D207" s="18" t="s">
         <v>6</v>
@@ -3718,7 +3757,7 @@
         <v>17</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="32.1" customHeight="1">
@@ -3726,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H209" s="18" t="s">
         <v>6</v>
@@ -3737,7 +3776,7 @@
         <v>17</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E210" s="18" t="s">
         <v>6</v>
@@ -3751,7 +3790,7 @@
         <v>17</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E211" s="18" t="s">
         <v>6</v>
@@ -3762,7 +3801,7 @@
         <v>17</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="32.1" customHeight="1">
@@ -3770,7 +3809,7 @@
         <v>17</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F213" s="18" t="s">
         <v>6</v>
@@ -3781,7 +3820,7 @@
         <v>17</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D214" s="18" t="s">
         <v>6</v>
@@ -3792,7 +3831,7 @@
         <v>17</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="32.1" customHeight="1">
@@ -3800,7 +3839,7 @@
         <v>17</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="32.1" customHeight="1">
@@ -3808,7 +3847,7 @@
         <v>17</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="32.1" customHeight="1">
@@ -3816,7 +3855,7 @@
         <v>17</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F218" s="18" t="s">
         <v>6</v>
@@ -3827,7 +3866,7 @@
         <v>17</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E219" s="18" t="s">
         <v>6</v>
@@ -3838,7 +3877,7 @@
         <v>17</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D220" s="18" t="s">
         <v>6</v>
@@ -3852,7 +3891,7 @@
         <v>17</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D221" s="18" t="s">
         <v>6</v>
@@ -3863,7 +3902,7 @@
         <v>17</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F222" s="18" t="s">
         <v>6</v>
@@ -3874,7 +3913,7 @@
         <v>17</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H223" s="18" t="s">
         <v>6</v>
@@ -3885,7 +3924,7 @@
         <v>17</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E224" s="18" t="s">
         <v>6</v>
@@ -3896,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E225" s="18" t="s">
         <v>6</v>
@@ -3907,7 +3946,7 @@
         <v>17</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F226" s="18" t="s">
         <v>6</v>
@@ -3918,7 +3957,7 @@
         <v>17</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D227" s="18" t="s">
         <v>6</v>
@@ -3929,7 +3968,7 @@
         <v>33</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D228" s="18" t="s">
         <v>6</v>
@@ -3940,7 +3979,7 @@
         <v>33</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D229" s="18" t="s">
         <v>6</v>
@@ -3951,7 +3990,7 @@
         <v>33</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="32.1" customHeight="1">
@@ -3959,7 +3998,7 @@
         <v>33</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="32.1" customHeight="1">
@@ -3967,7 +4006,7 @@
         <v>33</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H232" s="18" t="s">
         <v>6</v>
@@ -3978,7 +4017,7 @@
         <v>33</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F233" s="18" t="s">
         <v>6</v>
@@ -3989,7 +4028,7 @@
         <v>33</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E234" s="18" t="s">
         <v>6</v>
@@ -4000,7 +4039,7 @@
         <v>33</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E235" s="18" t="s">
         <v>6</v>
@@ -4011,7 +4050,7 @@
         <v>33</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F236" s="18" t="s">
         <v>6</v>
@@ -4022,7 +4061,7 @@
         <v>33</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="32.1" customHeight="1">
@@ -4033,7 +4072,7 @@
     <row r="239" spans="1:8" ht="32.1" customHeight="1">
       <c r="A239" s="15"/>
       <c r="B239" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="32.1" customHeight="1">
@@ -4041,7 +4080,7 @@
         <v>17</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E240" s="18" t="s">
         <v>6</v>
@@ -4052,7 +4091,7 @@
         <v>17</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E241" s="18" t="s">
         <v>6</v>
@@ -4066,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F242" s="18" t="s">
         <v>6</v>
@@ -4077,7 +4116,7 @@
         <v>17</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="32.1" customHeight="1">
@@ -4085,7 +4124,7 @@
         <v>33</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E244" s="18" t="s">
         <v>6</v>
@@ -4096,7 +4135,7 @@
         <v>33</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="32.1" customHeight="1">
@@ -4107,7 +4146,7 @@
     <row r="247" spans="1:8" ht="32.1" customHeight="1">
       <c r="A247" s="15"/>
       <c r="B247" s="33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="32.1" customHeight="1">
@@ -4116,18 +4155,18 @@
     </row>
     <row r="249" spans="1:8" ht="32.1" customHeight="1">
       <c r="A249" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="32.1" customHeight="1">
       <c r="A250" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F250" s="18" t="s">
         <v>6</v>
@@ -4135,10 +4174,10 @@
     </row>
     <row r="251" spans="1:8" ht="32.1" customHeight="1">
       <c r="A251" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B251" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="B251" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="F251" s="18" t="s">
         <v>6</v>
@@ -4146,10 +4185,10 @@
     </row>
     <row r="252" spans="1:8" ht="32.1" customHeight="1">
       <c r="A252" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H252" s="18" t="s">
         <v>6</v>
@@ -4157,18 +4196,18 @@
     </row>
     <row r="253" spans="1:8" ht="32.1" customHeight="1">
       <c r="A253" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="32.1" customHeight="1">
       <c r="A254" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E254" s="18" t="s">
         <v>6</v>
@@ -4179,18 +4218,18 @@
     </row>
     <row r="255" spans="1:8" ht="32.1" customHeight="1">
       <c r="A255" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="32.1" customHeight="1">
       <c r="A256" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D256" s="18" t="s">
         <v>6</v>
@@ -4201,10 +4240,10 @@
     </row>
     <row r="257" spans="1:8" ht="32.1" customHeight="1">
       <c r="A257" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D257" s="18" t="s">
         <v>6</v>
@@ -4215,10 +4254,10 @@
     </row>
     <row r="258" spans="1:8" ht="32.1" customHeight="1">
       <c r="A258" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="32.1" customHeight="1">
@@ -4226,7 +4265,7 @@
         <v>33</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="32.1" customHeight="1">
@@ -4234,7 +4273,7 @@
         <v>33</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D260" s="18" t="s">
         <v>6</v>
@@ -4248,7 +4287,7 @@
         <v>33</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="32.1" customHeight="1">
@@ -4256,7 +4295,7 @@
         <v>33</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E262" s="18" t="s">
         <v>6</v>
@@ -4271,7 +4310,7 @@
     <row r="264" spans="1:8" ht="32.1" customHeight="1">
       <c r="A264" s="15"/>
       <c r="B264" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="32.1" customHeight="1">
@@ -4279,7 +4318,7 @@
         <v>7</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="32.1" customHeight="1">
@@ -4287,7 +4326,7 @@
         <v>7</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="32.1" customHeight="1">
@@ -4295,7 +4334,7 @@
         <v>7</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="32.1" customHeight="1">
@@ -4303,7 +4342,7 @@
         <v>7</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F268" s="18" t="s">
         <v>6</v>
@@ -4314,7 +4353,7 @@
         <v>17</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D269" s="18" t="s">
         <v>6</v>
@@ -4328,7 +4367,7 @@
         <v>17</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D270" s="18" t="s">
         <v>6</v>
@@ -4342,7 +4381,7 @@
         <v>17</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="32.1" customHeight="1">
@@ -4350,7 +4389,7 @@
         <v>17</v>
       </c>
       <c r="B272" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="32.1" customHeight="1">
@@ -4358,7 +4397,7 @@
         <v>17</v>
       </c>
       <c r="B273" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="32.1" customHeight="1">
@@ -4366,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E274" s="18" t="s">
         <v>6</v>
@@ -4380,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="B275" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E275" s="18" t="s">
         <v>6</v>
@@ -4394,7 +4433,7 @@
         <v>17</v>
       </c>
       <c r="B276" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>6</v>
@@ -4408,7 +4447,7 @@
         <v>17</v>
       </c>
       <c r="B277" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="32.1" customHeight="1">
@@ -4416,7 +4455,7 @@
         <v>17</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="32.1" customHeight="1">
@@ -4424,7 +4463,7 @@
         <v>17</v>
       </c>
       <c r="B279" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="32.1" customHeight="1">
@@ -4432,7 +4471,7 @@
         <v>17</v>
       </c>
       <c r="B280" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>6</v>
@@ -4446,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="32.1" customHeight="1">
@@ -4454,7 +4493,7 @@
         <v>17</v>
       </c>
       <c r="B282" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="32.1" customHeight="1">
@@ -4462,7 +4501,7 @@
         <v>17</v>
       </c>
       <c r="B283" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E283" s="18" t="s">
         <v>6</v>
@@ -4476,7 +4515,7 @@
         <v>33</v>
       </c>
       <c r="B284" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E284" s="18" t="s">
         <v>6</v>
@@ -4490,7 +4529,7 @@
         <v>33</v>
       </c>
       <c r="B285" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="32.1" customHeight="1">
@@ -4498,7 +4537,7 @@
         <v>33</v>
       </c>
       <c r="B286" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>6</v>
@@ -4509,7 +4548,7 @@
         <v>33</v>
       </c>
       <c r="B287" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="32.1" customHeight="1">
@@ -4517,7 +4556,7 @@
         <v>33</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E288" s="18" t="s">
         <v>6</v>
@@ -4531,7 +4570,7 @@
         <v>33</v>
       </c>
       <c r="B289" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E289" s="18" t="s">
         <v>6</v>
@@ -4542,7 +4581,7 @@
         <v>33</v>
       </c>
       <c r="B290" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D290" s="18" t="s">
         <v>6</v>
@@ -4556,7 +4595,7 @@
         <v>33</v>
       </c>
       <c r="B291" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="32.1" customHeight="1">
@@ -4564,7 +4603,7 @@
         <v>33</v>
       </c>
       <c r="B292" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F292" s="18" t="s">
         <v>6</v>
@@ -4578,7 +4617,7 @@
         <v>33</v>
       </c>
       <c r="B293" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="32.1" customHeight="1">
@@ -4586,7 +4625,7 @@
         <v>33</v>
       </c>
       <c r="B294" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E294" s="18" t="s">
         <v>6</v>
@@ -4600,7 +4639,7 @@
     <row r="296" spans="1:8" ht="32.1" customHeight="1">
       <c r="A296" s="15"/>
       <c r="B296" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="32.1" customHeight="1">
@@ -4619,7 +4658,7 @@
         <v>17</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D298" s="18" t="s">
         <v>6</v>
@@ -4630,7 +4669,7 @@
         <v>17</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F299" s="18" t="s">
         <v>6</v>
@@ -4643,15 +4682,15 @@
     <row r="302" spans="1:8" ht="32.1" customHeight="1">
       <c r="A302" s="15"/>
       <c r="B302" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="32.1" customHeight="1">
       <c r="A303" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B303" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F303" s="18" t="s">
         <v>6</v>
@@ -4659,10 +4698,10 @@
     </row>
     <row r="304" spans="1:8" ht="32.1" customHeight="1">
       <c r="A304" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B304" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D304" s="18" t="s">
         <v>6</v>
@@ -4673,26 +4712,26 @@
     </row>
     <row r="305" spans="1:8" ht="32.1" customHeight="1">
       <c r="A305" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B305" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="32.1" customHeight="1">
       <c r="A306" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="32.1" customHeight="1">
       <c r="A307" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B307" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F307" s="18" t="s">
         <v>6</v>
@@ -4700,10 +4739,10 @@
     </row>
     <row r="308" spans="1:8" ht="32.1" customHeight="1">
       <c r="A308" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B308" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D308" s="18" t="s">
         <v>6</v>
@@ -4711,10 +4750,10 @@
     </row>
     <row r="309" spans="1:8" ht="32.1" customHeight="1">
       <c r="A309" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B309" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E309" s="18" t="s">
         <v>6</v>
@@ -4722,10 +4761,10 @@
     </row>
     <row r="310" spans="1:8" ht="32.1" customHeight="1">
       <c r="A310" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B310" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H310" s="18" t="s">
         <v>6</v>
@@ -4733,10 +4772,10 @@
     </row>
     <row r="311" spans="1:8" ht="32.1" customHeight="1">
       <c r="A311" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B311" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D311" s="18" t="s">
         <v>6</v>
@@ -4747,10 +4786,10 @@
     </row>
     <row r="312" spans="1:8" ht="32.1" customHeight="1">
       <c r="A312" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D312" s="18" t="s">
         <v>6</v>
@@ -4765,7 +4804,7 @@
     <row r="315" spans="1:8" ht="32.1" customHeight="1">
       <c r="A315" s="15"/>
       <c r="B315" s="33" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="32.1" customHeight="1">
@@ -4773,7 +4812,7 @@
         <v>17</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="32.1" customHeight="1">
@@ -4781,7 +4820,7 @@
         <v>17</v>
       </c>
       <c r="B317" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F317" s="18" t="s">
         <v>6</v>
@@ -4795,7 +4834,7 @@
         <v>17</v>
       </c>
       <c r="B318" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E318" s="18" t="s">
         <v>6</v>
@@ -4806,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="B319" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="32.1" customHeight="1">
@@ -4814,7 +4853,7 @@
         <v>17</v>
       </c>
       <c r="B320" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G320" s="18" t="s">
         <v>6</v>
@@ -4825,7 +4864,7 @@
         <v>17</v>
       </c>
       <c r="B321" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="32.1" customHeight="1">
@@ -4833,7 +4872,7 @@
         <v>17</v>
       </c>
       <c r="B322" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E322" s="18" t="s">
         <v>6</v>
@@ -4844,7 +4883,7 @@
         <v>17</v>
       </c>
       <c r="B323" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H323" s="18" t="s">
         <v>6</v>
@@ -4855,7 +4894,7 @@
         <v>33</v>
       </c>
       <c r="B324" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="32.1" customHeight="1">
@@ -4863,7 +4902,7 @@
         <v>33</v>
       </c>
       <c r="B325" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E325" s="18" t="s">
         <v>6</v>
@@ -4877,7 +4916,7 @@
         <v>33</v>
       </c>
       <c r="B326" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E326" s="18" t="s">
         <v>6</v>
@@ -4888,7 +4927,7 @@
         <v>33</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D327" s="18" t="s">
         <v>6</v>
@@ -4902,7 +4941,7 @@
         <v>33</v>
       </c>
       <c r="B328" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="32.1" customHeight="1">
@@ -4910,7 +4949,7 @@
         <v>33</v>
       </c>
       <c r="B329" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="32.1" customHeight="1">
@@ -4918,7 +4957,7 @@
         <v>33</v>
       </c>
       <c r="B330" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G330" s="18" t="s">
         <v>6</v>
@@ -4929,7 +4968,7 @@
         <v>33</v>
       </c>
       <c r="B331" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D331" s="18" t="s">
         <v>6</v>
@@ -4943,7 +4982,7 @@
         <v>33</v>
       </c>
       <c r="B332" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="32.1" customHeight="1">
@@ -4951,7 +4990,7 @@
         <v>33</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H333" s="18" t="s">
         <v>6</v>
@@ -4965,7 +5004,7 @@
     <row r="335" spans="1:8" ht="32.1" customHeight="1">
       <c r="A335" s="15"/>
       <c r="B335" s="33" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E335" s="18" t="s">
         <v>6</v>
@@ -4973,23 +5012,23 @@
     </row>
     <row r="336" spans="1:8" ht="32.1" customHeight="1">
       <c r="A336" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="32.1" customHeight="1">
       <c r="A337" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="32.1" customHeight="1">
       <c r="A338" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B338" s="16" t="s">
         <v>90</v>
@@ -5003,10 +5042,10 @@
     </row>
     <row r="339" spans="1:8" ht="32.1" customHeight="1">
       <c r="A339" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B339" s="16" t="s">
         <v>314</v>
-      </c>
-      <c r="B339" s="16" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
